--- a/config_files/Schedule Model Regular Year.xlsx
+++ b/config_files/Schedule Model Regular Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayos\Documents\GitHub\Control-Horarios\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa Gayoso\Documents\Github\PLB-Schedules\config_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B702E33-0180-487B-B355-B7E6CDCEE527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74B2737-0511-4A0E-84FC-7C20CAEA228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -889,27 +889,27 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -918,7 +918,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -927,7 +927,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -936,14 +936,14 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -975,7 +975,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="25">
         <v>1</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="25">
         <v>2</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="25">
         <v>3</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
         <v>4</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="25">
         <v>5</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="25">
         <v>6</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="25">
         <v>7</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="25">
         <v>8</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="25">
         <v>9</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
         <v>10</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="25">
         <v>11</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="25">
         <v>12</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="25">
         <v>13</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="25">
         <v>14</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="25">
         <v>15</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="25">
         <v>16</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="25">
         <v>17</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="25">
         <v>18</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="25">
         <v>19</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="25">
         <v>20</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="25">
         <v>21</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="25">
         <v>22</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="25">
         <v>23</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="25">
         <v>24</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="25">
         <v>25</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="25">
         <v>26</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="25">
         <v>27</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="25">
         <v>28</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="25">
         <v>29</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="25">
         <v>30</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="25">
         <v>31</v>
       </c>
@@ -1383,23 +1383,23 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G48" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
       <c r="I49" s="27"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -1445,7 +1445,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -1454,7 +1454,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -1463,7 +1463,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -1491,46 +1491,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6486AC-E003-4CAB-A4AB-BA9BC6FF6CEA}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -1969,17 +1969,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -2025,7 +2025,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -2034,7 +2034,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -2043,7 +2043,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -2070,46 +2070,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8740F8E4-54E9-4FB6-8D9A-49E25F55FD76}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -2153,7 +2153,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -2537,17 +2537,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
@@ -2584,7 +2584,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -2593,7 +2593,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -2602,7 +2602,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -2611,7 +2611,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -2638,46 +2638,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3618790-2BCB-4B60-BBFB-C820F665B2BD}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -2721,7 +2721,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -3116,17 +3116,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -3172,7 +3172,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -3181,7 +3181,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -3190,7 +3190,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -3217,27 +3217,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E731D6A-1AF2-42E7-AE13-0257C1BC47F0}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -3246,7 +3246,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -3255,7 +3255,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -3264,14 +3264,14 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="20">
         <v>1</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="20">
         <v>2</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="20">
         <v>3</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="20">
         <v>4</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="20">
         <v>5</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="20">
         <v>6</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="20">
         <v>7</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="20">
         <v>8</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="20">
         <v>9</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="20">
         <v>10</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="20">
         <v>11</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="20">
         <v>12</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="20">
         <v>13</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="20">
         <v>14</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="20">
         <v>15</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="20">
         <v>16</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="20">
         <v>17</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="20">
         <v>18</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="20">
         <v>19</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="20">
         <v>20</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="20">
         <v>21</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="20">
         <v>22</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="20">
         <v>23</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="20">
         <v>24</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="20">
         <v>25</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="20">
         <v>26</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="20">
         <v>27</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="20">
         <v>28</v>
       </c>
@@ -3677,30 +3677,30 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G47" s="14">
-        <f>SUM(G16:G45)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
       <c r="I49" s="27"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -3735,7 +3735,7 @@
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -3755,7 +3755,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -3764,7 +3764,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -3773,7 +3773,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -3800,27 +3800,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCE4023-35E9-4427-A2E3-62E45B00EDF5}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -3829,7 +3829,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -3838,7 +3838,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -3847,14 +3847,14 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -4293,17 +4293,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -4351,7 +4351,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -4360,7 +4360,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -4369,7 +4369,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -4396,27 +4396,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C68094-695E-4DEE-9781-A162D3F8C272}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -4425,7 +4425,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -4434,7 +4434,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -4443,14 +4443,14 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -4482,7 +4482,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -4506,7 +4506,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -4518,7 +4518,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -4878,22 +4878,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
@@ -4930,7 +4930,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -4939,7 +4939,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -4948,7 +4948,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -4957,7 +4957,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -4984,27 +4984,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67EED29-FE3C-458D-A7F1-9E7329998434}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -5013,7 +5013,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -5022,7 +5022,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -5031,14 +5031,14 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
@@ -5058,7 +5058,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -5070,7 +5070,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -5094,7 +5094,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -5106,7 +5106,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -5477,17 +5477,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
@@ -5524,7 +5524,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -5533,7 +5533,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -5542,7 +5542,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -5551,7 +5551,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -5578,46 +5578,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6AC2CD-893F-41C5-9C9B-6E61F154DBF8}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -5649,7 +5649,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -5661,7 +5661,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -5673,7 +5673,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -5685,12 +5685,12 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -6050,17 +6050,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
@@ -6097,7 +6097,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -6106,7 +6106,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -6115,7 +6115,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -6124,7 +6124,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -6152,46 +6152,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31BE021-B7E6-4F89-B7B6-87A6EC5D824F}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
@@ -6211,7 +6211,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -6223,7 +6223,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -6235,7 +6235,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -6247,7 +6247,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -6630,17 +6630,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
@@ -6677,7 +6677,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -6686,7 +6686,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -6695,7 +6695,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -6704,7 +6704,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -6731,46 +6731,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF978304-926E-4C89-893F-97ABC2FEF105}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
@@ -6790,7 +6790,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -6802,7 +6802,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -6826,7 +6826,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -6838,7 +6838,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -7209,17 +7209,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
@@ -7256,7 +7256,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -7265,7 +7265,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -7274,7 +7274,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -7283,7 +7283,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -7310,46 +7310,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A203EC-78E1-474A-A815-50A7240493FD}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
@@ -7369,7 +7369,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -7381,7 +7381,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -7405,7 +7405,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -7417,7 +7417,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -7777,17 +7777,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
@@ -7824,7 +7824,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -7833,7 +7833,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -7842,7 +7842,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -7851,7 +7851,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
